--- a/Vorlesungen/Grundlagen der Informatik/PVL.xlsx
+++ b/Vorlesungen/Grundlagen der Informatik/PVL.xlsx
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -82,15 +88,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -133,7 +158,9 @@
     <tableColumn id="1" name="Test" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Erreicht"/>
     <tableColumn id="3" name="Max"/>
-    <tableColumn id="4" name="Prozent" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="Prozent" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>IF(C3=0,"N/A",B3/C3)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -405,7 +432,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +470,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <f>B3/C3</f>
+        <f t="shared" ref="D3:D4" si="0">IF(C3=0,"N/A",B3/C3)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -451,51 +478,78 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="str">
+        <f>IF(C5=0,"N/A",B5/C5)</f>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ref="D6:D10" si="1">IF(C6=0,"N/A",B6/C6)</f>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f>SUBTOTAL(109,Table1[Prozent])</f>
-        <v>0.5</v>
+        <v>1.0714285714285714</v>
       </c>
     </row>
   </sheetData>
